--- a/testfile.xlsx
+++ b/testfile.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t xml:space="preserve">Frage</t>
   </si>
@@ -40,31 +40,19 @@
     <t xml:space="preserve">Create getter and setter methods for the class.</t>
   </si>
   <si>
-    <t xml:space="preserve">/home/kali/Schreibtisch/cardCreator/setter.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/home/kali/Schreibtisch/cardCreator/getters.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wie kann man der Klasse den Richtigen sachen geben? Was ist der Unterschied zwischen einem blablabal ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/home/kali/Schreibtisch/cardCreator/round2.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">small</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frage2</t>
+    <t xml:space="preserve">Antwort0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antwort1</t>
   </si>
   <si>
     <t xml:space="preserve">Antwort2</t>
   </si>
   <si>
-    <t xml:space="preserve">Frage3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antwort3</t>
+    <t xml:space="preserve">Wie kann man den Ding am besten machen ?  Wie geht der blabla einfacher?  Was ist die Antwort auf alles?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">s</t>
   </si>
   <si>
     <t xml:space="preserve">Frage4</t>
@@ -225,7 +213,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -257,112 +245,108 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
+    <row r="5" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="18.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>

--- a/testfile.xlsx
+++ b/testfile.xlsx
@@ -55,7 +55,7 @@
     <t xml:space="preserve">s</t>
   </si>
   <si>
-    <t xml:space="preserve">Frage4</t>
+    <t xml:space="preserve">asdfasdfa asdfadsfa asdf asdffad asdfasdfa asdfa afa afaf afa afa afafafa fafaf afsfdasdfasdfa afafasdfadf faas fasdfa</t>
   </si>
   <si>
     <t xml:space="preserve">Antwort4</t>
@@ -213,7 +213,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/testfile.xlsx
+++ b/testfile.xlsx
@@ -82,7 +82,7 @@
     <t xml:space="preserve">Frage7</t>
   </si>
   <si>
-    <t xml:space="preserve">Antwort7</t>
+    <t xml:space="preserve">Biologische Vorgänge laufen nur dank Wasser ab. Der Mensch als biologisches Wesen (Wasseranteil ca. 70 %) nutzt das Wasser zur Sicherung seines eigenen Überlebens und für seine kulturelle und wirtschaftliche Entwicklung. Da Wasser als einziger natürlicher Stoff auf der Erde im festen, flüssigen und gasförmigen Zustand vorkommt, prägt es von geologischen Prozessen im Laufe von Jahrmillionen bis zu Wetterphänomenen die unbelebte Natur. Es gilt als eine der naturwissenschaftlich am besten untersuchten chemischen Verbindungen.</t>
   </si>
   <si>
     <t xml:space="preserve">Frage8</t>
@@ -178,7 +178,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -197,6 +197,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -219,7 +223,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -324,12 +328,12 @@
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="2"/>

--- a/testfile.xlsx
+++ b/testfile.xlsx
@@ -70,7 +70,7 @@
     <t xml:space="preserve">Frage5</t>
   </si>
   <si>
-    <t xml:space="preserve">Antwort5</t>
+    <t xml:space="preserve">Das deutsche Wort Wasser (mittelhochdeutsch wazzer, althochdeutsch wazzar) ist urverwandt mit indogermanisch *wódr̥ und *wédōr, das bereits in hethitischen Texten des 2. Jahrtausends v. Chr. (etwa als watar) belegt ist. Das Wort gehört zur indogermanischen Wurzel *wēd oder *wŏd, vgl. englisch wet, „feucht“.</t>
   </si>
   <si>
     <t xml:space="preserve">Frage6</t>
@@ -200,7 +200,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -223,7 +223,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -311,7 +311,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="2"/>
@@ -333,7 +333,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="2"/>

--- a/testfile.xlsx
+++ b/testfile.xlsx
@@ -22,79 +22,79 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
-    <t xml:space="preserve">Frage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bild-Frage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antwort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bild-Antwort</t>
+    <t xml:space="preserve">Question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image-Question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image-Answer</t>
   </si>
   <si>
     <t xml:space="preserve">Layout</t>
   </si>
   <si>
-    <t xml:space="preserve">Frage0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antwort0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frage1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antwort1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frage2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antwort2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frage3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antwort3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frage4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antwort4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frage5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das deutsche Wort Wasser (mittelhochdeutsch wazzer, althochdeutsch wazzar) ist urverwandt mit indogermanisch *wódr̥ und *wédōr, das bereits in hethitischen Texten des 2. Jahrtausends v. Chr. (etwa als watar) belegt ist. Das Wort gehört zur indogermanischen Wurzel *wēd oder *wŏd, vgl. englisch wet, „feucht“.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frage6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Bezeichnung Wasser wird dabei für den flüssigen Aggregatzustand verwendet. Im festen Zustand spricht man von Eis, im gasförmigen Zustand von Wasserdampf. In der Natur kommt Wasser selten rein vor, sondern enthält meist gelöste Anteile von Salzen, Gasen und organischen Verbindungen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frage7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biologische Vorgänge laufen nur dank Wasser ab. Der Mensch als biologisches Wesen (Wasseranteil ca. 70 %) nutzt das Wasser zur Sicherung seines eigenen Überlebens und für seine kulturelle und wirtschaftliche Entwicklung. Da Wasser als einziger natürlicher Stoff auf der Erde im festen, flüssigen und gasförmigen Zustand vorkommt, prägt es von geologischen Prozessen im Laufe von Jahrmillionen bis zu Wetterphänomenen die unbelebte Natur. Es gilt als eine der naturwissenschaftlich am besten untersuchten chemischen Verbindungen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frage8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antwort8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frage9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antwort9</t>
+    <t xml:space="preserve">Question1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answer1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answer2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answer3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answer4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answer5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorem ipsum dolor sit amet, consetetur sadipscing elitr, sed diam nonumy eirmod tempor invidunt ut labore et dolore magna aliquyam erat, sed diam voluptua. At vero eos et accusam et justo duo dolores et ea rebum. Stet clita kasd gubergren, no sea takimata sanctus est Lorem ipsum dolor sit amet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorem ipsum dolor sit amet, consetetur sadipscing elitr, sed diam nonumy eirmod tempor invidunt ut labore et dolore magna aliquyam erat, sed diam voluptua. At vero eos et accusam et justo duo dolores et ea rebum. Stet clita kasd gubergren, no sea takimata sanctus est Lorem ipsum dolor sit amet. Lorem ipsum dolor sit amet, consetetur sadipscing elitr, sed diam nonumy eirmod tempor invidunt ut labore et dolore magna aliquyam erat, sed diam voluptua. At vero eos et accusam et justo duo dolores et ea rebum. Stet clita kasd gubergren, no sea takimata sanctus est Lorem ipsum dolor sit amet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answer8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answer9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answer10</t>
   </si>
 </sst>
 </file>
@@ -178,7 +178,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -197,10 +197,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -223,7 +219,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -311,7 +307,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="2"/>
@@ -328,7 +324,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>

--- a/testfile.xlsx
+++ b/testfile.xlsx
@@ -218,7 +218,7 @@
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
